--- a/inverjet_app/Core/fyld_mcu_sdk/DataPoint.xlsx
+++ b/inverjet_app/Core/fyld_mcu_sdk/DataPoint.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="140">
   <si>
     <t>下载时间</t>
   </si>
@@ -365,7 +365,7 @@
     <t>用于以二进制形式透传的数据。如空调的红外学习</t>
   </si>
   <si>
-    <t>2024-08-28 10:27:01</t>
+    <t>2024-10-28 14:42:47</t>
   </si>
   <si>
     <t>逆流器-测试中</t>
@@ -374,88 +374,92 @@
     <t>iupstream1</t>
   </si>
   <si>
-    <t>显示板软件版本</t>
-  </si>
-  <si>
-    <t>get_software_version</t>
+    <t>预备时间（标志位）</t>
+  </si>
+  <si>
+    <t>preparation_time</t>
+  </si>
+  <si>
+    <t>可下发可上报</t>
+  </si>
+  <si>
+    <t>数字型</t>
+  </si>
+  <si>
+    <t>数值范围:0-65535
+步长:1
+倍率:0
+初始值:0
+单位:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit 0: 定时模式
+Bit 1: P1
+Bit 2: P2
+Bit 3: P3
+Bit 4: P4
+Bit 5: P5
+Bit 6: P6
+</t>
+  </si>
+  <si>
+    <t>驱动板故障</t>
+  </si>
+  <si>
+    <t>Device_Error_Code</t>
   </si>
   <si>
     <t>只上报</t>
   </si>
   <si>
-    <t>数据长度:4</t>
-  </si>
-  <si>
-    <t>显示板软件版本 4字节</t>
-  </si>
-  <si>
-    <t>显示板硬件版本</t>
-  </si>
-  <si>
-    <t>get_hardware_version</t>
-  </si>
-  <si>
-    <t>驱动板软件版本</t>
-  </si>
-  <si>
-    <t>get_drive_software_version</t>
-  </si>
-  <si>
-    <t>驱动板硬件版本</t>
-  </si>
-  <si>
-    <t>get_drive_hardware_version</t>
-  </si>
-  <si>
     <t>读系统故障</t>
   </si>
   <si>
     <t>get_system_fault_status</t>
   </si>
   <si>
-    <t xml:space="preserve">1:E001
-2:E002
-4:E003
-8:E004
+    <t xml:space="preserve">1:E001 母线电压异常
+2:E002 过流
+3:E003 偏置故障
+4:E004 输出短路
+5:E101 MOS温度过高
+6:E102 电箱温度过高
+7:E201 温度传感器故障
+8:E202 驱动板故障
+9:E203 驱动板通讯故障
 </t>
   </si>
   <si>
-    <t>读电机驱动故障</t>
-  </si>
-  <si>
-    <t>get_drive_fault_status</t>
-  </si>
-  <si>
-    <t>数据长度:1</t>
-  </si>
-  <si>
-    <t>MOS 温度</t>
+    <t>MOS温度</t>
   </si>
   <si>
     <t>get_mos_temperature</t>
   </si>
   <si>
-    <t>数字型</t>
-  </si>
-  <si>
-    <t>数值范围:0-1000
+    <t>数值范围:-1000-1000
 步长:1
 倍率:1
-初始值:0
+初始值:25
 单位:°C</t>
   </si>
   <si>
-    <t>电机电流</t>
+    <t>电箱温度</t>
+  </si>
+  <si>
+    <t>get_box_temperature</t>
+  </si>
+  <si>
+    <t>电机电流(输出)</t>
   </si>
   <si>
     <t>get_motor_current</t>
   </si>
   <si>
-    <t>数值范围:0-10000
+    <t>数值范围:-10000-10000
 步长:1
 倍率:2
 初始值:0
-单位:A 安培</t>
+单位:A</t>
   </si>
   <si>
     <t>电机实际转速</t>
@@ -464,53 +468,122 @@
     <t>Motor_Reality_Speed</t>
   </si>
   <si>
-    <t>数值范围:0-5000
+    <t>数值范围:0-65535
 步长:1
 倍率:0
 初始值:0
 单位:rpm</t>
   </si>
   <si>
-    <t>母线电压</t>
+    <t>母线电压(输入)</t>
   </si>
   <si>
     <t>motor_bus_voltage</t>
   </si>
   <si>
-    <t>数值范围:0-5000
+    <t>数值范围:0-65535
 步长:1
 倍率:1
 初始值:0
-单位:0.1 V</t>
-  </si>
-  <si>
-    <t>系统工作模式</t>
-  </si>
-  <si>
-    <t>system_working_mode</t>
-  </si>
-  <si>
-    <t>可下发可上报</t>
-  </si>
-  <si>
-    <t>数值范围:0-5
+单位:V</t>
+  </si>
+  <si>
+    <t>下发实际转速</t>
+  </si>
+  <si>
+    <t>Send_Reality_Speed</t>
+  </si>
+  <si>
+    <t>电机功率</t>
+  </si>
+  <si>
+    <t>Motor_Power</t>
+  </si>
+  <si>
+    <t>数值范围:0-65535
 步长:1
 倍率:0
 初始值:0
-单位:</t>
-  </si>
-  <si>
-    <t>系统状态机</t>
-  </si>
-  <si>
-    <t>system_working_status</t>
-  </si>
-  <si>
-    <t>数值范围:0-17
+单位:w</t>
+  </si>
+  <si>
+    <t>母线电流</t>
+  </si>
+  <si>
+    <t>motor_bus_currente</t>
+  </si>
+  <si>
+    <t>数值范围:0-65535
+步长:1
+倍率:2
+初始值:0
+单位:A</t>
+  </si>
+  <si>
+    <t>系统运行时间 (调试用)</t>
+  </si>
+  <si>
+    <t>System_Running_Time</t>
+  </si>
+  <si>
+    <t>数值范围:0-2147483647
 步长:1
 倍率:0
 初始值:0
-单位:</t>
+单位:秒</t>
+  </si>
+  <si>
+    <t>无操作时间 (调试用)</t>
+  </si>
+  <si>
+    <t>No_Operation_Time</t>
+  </si>
+  <si>
+    <t>启动时间 (调试用)</t>
+  </si>
+  <si>
+    <t>System_Startup_Time</t>
+  </si>
+  <si>
+    <t>工作模式</t>
+  </si>
+  <si>
+    <t>system_working_mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:自由或定时模式
+1:TRAINING_MODE_P1
+2:TRAINING_MODE_P2
+3:TRAINING_MODE_P3
+4:TRAINING_MODE_P4
+5:TRAINING_MODE_P5
+6:TRAINING_MODE_P6
+</t>
+  </si>
+  <si>
+    <t>系统状态机</t>
+  </si>
+  <si>
+    <t>system_working_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:POWER_OFF_STATUS
+1:FREE_MODE_INITIAL
+2:FREE_MODE_STARTING
+3:FREE_MODE_RUNNING
+4:FREE_MODE_SUSPEND
+5:FREE_MODE_STOP
+6:TIMING_MODE_INITIAL
+7:TIMING_MODE_STARTING
+8:TIMING_MODE_RUNNING
+9:TIMING_MODE_SUSPEND
+10:TIMING_MODE_STOP
+11:TRAINING_MODE_INITIA
+12:TRAINING_MODE_STARTI
+13:TRAINING_MODE_RUNNIN
+14:TRAINING_MODE_SUSPEN
+15:TRAINING_MODE_STOP
+</t>
   </si>
   <si>
     <t>当前转速</t>
@@ -522,8 +595,8 @@
     <t>数值范围:0-100
 步长:1
 倍率:0
-初始值:0
-单位:</t>
+初始值:20
+单位:%</t>
   </si>
   <si>
     <t>当前时间</t>
@@ -539,6 +612,18 @@
 单位:秒</t>
   </si>
   <si>
+    <t>模式+状态</t>
+  </si>
+  <si>
+    <t>System_status_mode</t>
+  </si>
+  <si>
+    <t>透传型</t>
+  </si>
+  <si>
+    <t>(4字节)  uint16_t 模式 + uint8_t 状态机</t>
+  </si>
+  <si>
     <t>自由模式默认速度</t>
   </si>
   <si>
@@ -549,7 +634,7 @@
 步长:1
 倍率:0
 初始值:40
-单位:1%</t>
+单位:%</t>
   </si>
   <si>
     <t>定时模式默认速度</t>
@@ -577,18 +662,18 @@
     <t>set_train_plan_01</t>
   </si>
   <si>
-    <t>透传型</t>
+    <t>训练计划包含50段速，每段包含【uint16-速度（百分比）】+【uint16 - 时间（秒）】，总长度【2+2】*50 = 200 字节</t>
+  </si>
+  <si>
+    <t>训练计划02</t>
+  </si>
+  <si>
+    <t>set_train_plan_02</t>
   </si>
   <si>
     <t>训练计划包含50段速，每段包含【uint16-速度（百分比）】+【uint16 - 时间（秒）】，总长度【2+2】+50 = 200 字节</t>
   </si>
   <si>
-    <t>训练计划02</t>
-  </si>
-  <si>
-    <t>set_train_plan_02</t>
-  </si>
-  <si>
     <t>训练计划03</t>
   </si>
   <si>
@@ -605,6 +690,63 @@
   </si>
   <si>
     <t>set_train_plan_05</t>
+  </si>
+  <si>
+    <t>自定义训练计划_01</t>
+  </si>
+  <si>
+    <t>custom_train_plan_01</t>
+  </si>
+  <si>
+    <t>自定义训练计划_02</t>
+  </si>
+  <si>
+    <t>custom_train_plan_02</t>
+  </si>
+  <si>
+    <t>自定义训练计划_03</t>
+  </si>
+  <si>
+    <t>custom_train_plan_03</t>
+  </si>
+  <si>
+    <t>完成统计_时长</t>
+  </si>
+  <si>
+    <t>finish_statistics_time</t>
+  </si>
+  <si>
+    <t>数值范围:0-65535
+步长:1
+倍率:0
+初始值:0
+单位:(秒)</t>
+  </si>
+  <si>
+    <t>完成统计_游泳强度</t>
+  </si>
+  <si>
+    <t>finish_statistics_seed</t>
+  </si>
+  <si>
+    <t>数值范围:0-100
+步长:1
+倍率:0
+初始值:0
+单位:(%)</t>
+  </si>
+  <si>
+    <t>完成统计_距离</t>
+  </si>
+  <si>
+    <t>finish_statistics_distance</t>
+  </si>
+  <si>
+    <t>数值范围:0-2147483647
+步长:1
+倍率:2
+初始值:0
+单位:(米)</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1707,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1631,7 +1773,7 @@
     </row>
     <row r="5" ht="45" spans="1:7">
       <c r="A5" s="3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>48</v>
@@ -1643,33 +1785,33 @@
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="3">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B6" t="s" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s" s="3">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s" s="3">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s" s="3">
         <v>20</v>
@@ -1677,22 +1819,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="3">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="D7" t="s" s="3">
-        <v>50</v>
-      </c>
       <c r="E7" t="s" s="3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s" s="3">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s" s="3">
         <v>20</v>
@@ -1700,22 +1842,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="3">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s" s="3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s" s="3">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s" s="3">
         <v>20</v>
@@ -1723,22 +1865,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="3">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s" s="3">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s" s="3">
         <v>20</v>
@@ -1746,22 +1888,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="3">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s" s="3">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s" s="3">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s" s="3">
         <v>20</v>
@@ -1769,22 +1911,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="3">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B11" t="s" s="3">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s" s="3">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s" s="3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s" s="3">
         <v>20</v>
@@ -1792,22 +1934,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="3">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s" s="3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s" s="3">
         <v>20</v>
@@ -1815,22 +1957,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n" s="3">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="B13" t="s" s="3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s" s="3">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s" s="3">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s" s="3">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s" s="3">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s" s="3">
         <v>20</v>
@@ -1838,22 +1980,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="3">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="3">
         <v>20</v>
@@ -1861,19 +2003,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n" s="3">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s" s="3">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s" s="3">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s" s="3">
         <v>81</v>
@@ -1884,7 +2026,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="3">
-        <v>22.0</v>
+        <v>16.0</v>
       </c>
       <c r="B16" t="s" s="3">
         <v>82</v>
@@ -1893,10 +2035,10 @@
         <v>83</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="3">
         <v>84</v>
@@ -1907,7 +2049,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n" s="3">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="B17" t="s" s="3">
         <v>85</v>
@@ -1916,13 +2058,13 @@
         <v>86</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s" s="3">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="3">
         <v>20</v>
@@ -1930,22 +2072,22 @@
     </row>
     <row r="18">
       <c r="A18" t="n" s="3">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
       <c r="B18" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s" s="3">
         <v>88</v>
       </c>
-      <c r="C18" t="s" s="3">
-        <v>89</v>
-      </c>
       <c r="D18" t="s" s="3">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s" s="3">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="3">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="3">
         <v>20</v>
@@ -1953,22 +2095,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n" s="3">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="B19" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s" s="3">
         <v>91</v>
-      </c>
-      <c r="C19" t="s" s="3">
-        <v>92</v>
-      </c>
-      <c r="D19" t="s" s="3">
-        <v>80</v>
-      </c>
-      <c r="E19" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="F19" t="s" s="3">
-        <v>93</v>
       </c>
       <c r="G19" t="s" s="3">
         <v>20</v>
@@ -1976,22 +2118,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n" s="3">
-        <v>29.0</v>
+        <v>22.0</v>
       </c>
       <c r="B20" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s" s="3">
         <v>94</v>
-      </c>
-      <c r="C20" t="s" s="3">
-        <v>95</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="F20" t="s" s="3">
-        <v>93</v>
       </c>
       <c r="G20" t="s" s="3">
         <v>20</v>
@@ -1999,22 +2141,22 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="3">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
       <c r="B21" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s" s="3">
         <v>96</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="D21" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s" s="3">
         <v>97</v>
-      </c>
-      <c r="D21" t="s" s="3">
-        <v>80</v>
-      </c>
-      <c r="E21" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="F21" t="s" s="3">
-        <v>98</v>
       </c>
       <c r="G21" t="s" s="3">
         <v>20</v>
@@ -2022,49 +2164,51 @@
     </row>
     <row r="22">
       <c r="A22" t="n" s="3">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
       <c r="B22" t="s" s="3">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s" s="3">
         <v>99</v>
       </c>
-      <c r="C22" t="s" s="3">
+      <c r="D22" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s" s="3">
         <v>100</v>
       </c>
-      <c r="D22" t="s" s="3">
-        <v>80</v>
-      </c>
-      <c r="E22" t="s" s="3">
-        <v>101</v>
-      </c>
-      <c r="F22" s="3"/>
       <c r="G22" t="s" s="3">
-        <v>102</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="3">
-        <v>32.0</v>
+        <v>25.0</v>
       </c>
       <c r="B23" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s" s="3">
         <v>103</v>
-      </c>
-      <c r="C23" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="D23" t="s" s="3">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s" s="3">
-        <v>101</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" t="s" s="3">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="3">
-        <v>33.0</v>
+        <v>28.0</v>
       </c>
       <c r="B24" t="s" s="3">
         <v>105</v>
@@ -2073,174 +2217,417 @@
         <v>106</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>101</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="F24" t="s" s="3">
+        <v>107</v>
+      </c>
       <c r="G24" t="s" s="3">
-        <v>102</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n" s="3">
-        <v>34.0</v>
+        <v>29.0</v>
       </c>
       <c r="B25" t="s" s="3">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s" s="3">
         <v>107</v>
       </c>
-      <c r="C25" t="s" s="3">
-        <v>108</v>
-      </c>
-      <c r="D25" t="s" s="3">
-        <v>80</v>
-      </c>
-      <c r="E25" t="s" s="3">
-        <v>101</v>
-      </c>
-      <c r="F25" s="3"/>
       <c r="G25" t="s" s="3">
-        <v>102</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="B26" t="s" s="3">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s" s="3">
+        <v>112</v>
+      </c>
+      <c r="G26" t="s" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="3">
+        <v>31.0</v>
+      </c>
+      <c r="B27" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" t="s" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="B28" t="s" s="3">
+        <v>116</v>
+      </c>
+      <c r="C28" t="s" s="3">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" t="s" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="B29" t="s" s="3">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s" s="3">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" t="s" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="3">
+        <v>34.0</v>
+      </c>
+      <c r="B30" t="s" s="3">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s" s="3">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" t="s" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="3">
         <v>35.0</v>
       </c>
-      <c r="B26" t="s" s="3">
-        <v>109</v>
-      </c>
-      <c r="C26" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="D26" t="s" s="3">
-        <v>80</v>
-      </c>
-      <c r="E26" t="s" s="3">
-        <v>101</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" t="s" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="1:1">
-      <c r="A27" s="2" t="s">
+      <c r="B31" t="s" s="3">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s" s="3">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" t="s" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="B32" t="s" s="3">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s" s="3">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" t="s" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:1">
-      <c r="A28" s="2" t="s">
+    <row r="33">
+      <c r="A33" t="n" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="B33" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s" s="3">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" t="s" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="B34" t="s" s="3">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s" s="3">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" t="s" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="B35" t="s" s="3">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s" s="3">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s" s="3">
+        <v>133</v>
+      </c>
+      <c r="G35" t="s" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="3">
+        <v>41.0</v>
+      </c>
+      <c r="B36" t="s" s="3">
+        <v>134</v>
+      </c>
+      <c r="C36" t="s" s="3">
+        <v>135</v>
+      </c>
+      <c r="D36" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="E36" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="F36" t="s" s="3">
+        <v>136</v>
+      </c>
+      <c r="G36" t="s" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="3">
+        <v>42.0</v>
+      </c>
+      <c r="B37" t="s" s="3">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s" s="3">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="F37" t="s" s="3">
+        <v>139</v>
+      </c>
+      <c r="G37" t="s" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:1">
+      <c r="A39" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" ht="15" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" ht="15" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="1:1">
-      <c r="A36" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" ht="15" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" ht="15" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" ht="15" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:2">
       <c r="A42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:2">
+      <c r="A53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2249,22 +2636,22 @@
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
